--- a/精度倍数相关关系数据.xlsx
+++ b/精度倍数相关关系数据.xlsx
@@ -1,208 +1,43 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>工作表</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Sheet1</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projectTest\solidityTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B51D59F-BFC2-4258-9F16-944C3D6EA005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B00676C-13D5-4D1D-BF76-FDBD683904E7}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$R$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>EDY</dc:creator>
-  <cp:lastModifiedBy>EDY</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2023-03-10T09:37:03Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2023-03-12T08:23:01Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=docProps\custom.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="2" name="5B77E7CEEC58BC6AFAE8886BEB80DBEB">
-    <vt:lpwstr>otCYQxs9Dbw2bUEn/Soxv9pYAoWsCRIsU8+gIbxzzmNcJN13+qHIPyWmbF9hFzPHyi2m8DLwi54E5OVVM5pJ0yGmgAiYTaR6oYUdYZxdjep6I9xviFUFZ9aTScfBW9OGgEyPsCK+QB0Sff9lJ+ao29D7lH1UTyZyiL/ovkcWjzmFmSQ6zH0dDokPXDFi0Povhoc2v8SXjb8VABZoUICnQeJ+X8pwpCKTztjcOkZsElOeJ4Pt84EgCyxkRQkrHpdWWeIND3fEDeJrY8v4tCZ8M8tIaRZH8s06Wa3aj9fCad35AayOB1z7d/8UdFY901g54vCHGtTNCyiFaZAkfcg+hkJ7Lk1f01A39VuVkHhuCf26wU4aca/+yESK/6cLM0xO4ioobMYduR61WBRTbSNYO5U3G1NXivo4p6/f6WID93PODvYNCEHdD6R69zFFtyXAqRLI0oQUYGRomMbIULEWuqkN9cMX5JMyxn5f/Vf5u2c1guJFDCVYJJDTBLXFnlkminKeG/58IqPj8U7jqKmOj3IqlXITLhHkbKp4jYqRDFS0q5gasdUkDCIsIBV4+mo1tax5bpvWtlgXQDjoKpnqP5k2fzGFgL/Y+Yogt4SSjV8=</vt:lpwstr>
-  </property>
-</Properties>
-</file>
-
-<file path=xl\calcChain.xml><?xml version="1.0" encoding="utf-8"?>
-<calcChain xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <c r="Q42" i="1" l="1"/>
-  <c r="R42" i="1"/>
-  <c r="Q47" i="1"/>
-  <c r="R47" i="1"/>
-  <c r="Q44" i="1"/>
-  <c r="R44" i="1"/>
-  <c r="Q45" i="1"/>
-  <c r="R45" i="1"/>
-  <c r="Q46" i="1"/>
-  <c r="R46" i="1"/>
-  <c r="R43" i="1"/>
-  <c r="Q43" i="1"/>
-  <c r="N37" i="1"/>
-  <c r="Q37" i="1" s="1"/>
-  <c r="O40" i="1"/>
-  <c r="R40" i="1" s="1"/>
-  <c r="N40" i="1"/>
-  <c r="Q40" i="1" s="1"/>
-  <c r="O39" i="1"/>
-  <c r="R39" i="1" s="1"/>
-  <c r="N39" i="1"/>
-  <c r="Q39" i="1" s="1"/>
-  <c r="O38" i="1"/>
-  <c r="R38" i="1" s="1"/>
-  <c r="N38" i="1"/>
-  <c r="Q38" i="1" s="1"/>
-  <c r="O37" i="1"/>
-  <c r="R37" i="1" s="1"/>
-  <c r="O35" i="1"/>
-  <c r="R35" i="1" s="1"/>
-  <c r="N35" i="1"/>
-  <c r="Q35" i="1" s="1"/>
-  <c r="O34" i="1"/>
-  <c r="R34" i="1" s="1"/>
-  <c r="N34" i="1"/>
-  <c r="Q34" i="1" s="1"/>
-  <c r="O33" i="1"/>
-  <c r="R33" i="1" s="1"/>
-  <c r="N33" i="1"/>
-  <c r="Q33" i="1" s="1"/>
-  <c r="O32" i="1"/>
-  <c r="R32" i="1" s="1"/>
-  <c r="N32" i="1"/>
-  <c r="Q32" i="1" s="1"/>
-  <c r="O30" i="1"/>
-  <c r="R30" i="1" s="1"/>
-  <c r="N30" i="1"/>
-  <c r="Q30" i="1" s="1"/>
-  <c r="O29" i="1"/>
-  <c r="R29" i="1" s="1"/>
-  <c r="N29" i="1"/>
-  <c r="Q29" i="1" s="1"/>
-  <c r="O28" i="1"/>
-  <c r="R28" i="1" s="1"/>
-  <c r="N28" i="1"/>
-  <c r="Q28" i="1" s="1"/>
-  <c r="O27" i="1"/>
-  <c r="R27" i="1" s="1"/>
-  <c r="N27" i="1"/>
-  <c r="Q27" i="1" s="1"/>
-  <c r="O25" i="1"/>
-  <c r="R25" i="1" s="1"/>
-  <c r="N25" i="1"/>
-  <c r="Q25" i="1" s="1"/>
-  <c r="O24" i="1"/>
-  <c r="R24" i="1" s="1"/>
-  <c r="N24" i="1"/>
-  <c r="Q24" i="1" s="1"/>
-  <c r="O23" i="1"/>
-  <c r="R23" i="1" s="1"/>
-  <c r="N23" i="1"/>
-  <c r="Q23" i="1" s="1"/>
-  <c r="O22" i="1"/>
-  <c r="R22" i="1" s="1"/>
-  <c r="N22" i="1"/>
-  <c r="Q22" i="1" s="1"/>
-  <c r="N16" i="1"/>
-  <c r="Q16" i="1" s="1"/>
-  <c r="O16" i="1"/>
-  <c r="R16" i="1" s="1"/>
-  <c r="N17" i="1"/>
-  <c r="Q17" i="1" s="1"/>
-  <c r="O17" i="1"/>
-  <c r="R17" i="1" s="1"/>
-  <c r="N18" i="1"/>
-  <c r="Q18" i="1" s="1"/>
-  <c r="O18" i="1"/>
-  <c r="R18" i="1" s="1"/>
-  <c r="N19" i="1"/>
-  <c r="Q19" i="1" s="1"/>
-  <c r="O19" i="1"/>
-  <c r="R19" i="1" s="1"/>
-  <c r="N20" i="1"/>
-  <c r="Q20" i="1" s="1"/>
-  <c r="O20" i="1"/>
-  <c r="R20" i="1" s="1"/>
-  <c r="N11" i="1"/>
-  <c r="Q11" i="1" s="1"/>
-  <c r="O11" i="1"/>
-  <c r="R11" i="1" s="1"/>
-  <c r="N12" i="1"/>
-  <c r="O12" i="1"/>
-  <c r="R12" i="1" s="1"/>
-  <c r="Q12" i="1"/>
-  <c r="N13" i="1"/>
-  <c r="O13" i="1"/>
-  <c r="R13" i="1" s="1"/>
-  <c r="Q13" i="1"/>
-  <c r="N14" i="1"/>
-  <c r="Q14" i="1" s="1"/>
-  <c r="O14" i="1"/>
-  <c r="R14" i="1"/>
-  <c r="N15" i="1"/>
-  <c r="Q15" i="1" s="1"/>
-  <c r="O15" i="1"/>
-  <c r="R15" i="1" s="1"/>
-  <c r="N6" i="1"/>
-  <c r="Q6" i="1" s="1"/>
-  <c r="O6" i="1"/>
-  <c r="R6" i="1" s="1"/>
-  <c r="N7" i="1"/>
-  <c r="Q7" i="1" s="1"/>
-  <c r="O7" i="1"/>
-  <c r="R7" i="1" s="1"/>
-  <c r="N8" i="1"/>
-  <c r="Q8" i="1" s="1"/>
-  <c r="O8" i="1"/>
-  <c r="R8" i="1" s="1"/>
-  <c r="N9" i="1"/>
-  <c r="Q9" i="1" s="1"/>
-  <c r="O9" i="1"/>
-  <c r="R9" i="1" s="1"/>
-  <c r="N10" i="1"/>
-  <c r="Q10" i="1" s="1"/>
-  <c r="O10" i="1"/>
-  <c r="R10" i="1" s="1"/>
-  <c r="N3" i="1"/>
-  <c r="Q3" i="1" s="1"/>
-  <c r="N4" i="1"/>
-  <c r="Q4" i="1" s="1"/>
-  <c r="N5" i="1"/>
-  <c r="Q5" i="1" s="1"/>
-  <c r="N2" i="1"/>
-  <c r="O3" i="1"/>
-  <c r="R3" i="1" s="1"/>
-  <c r="O4" i="1"/>
-  <c r="R4" i="1" s="1"/>
-  <c r="O5" i="1"/>
-  <c r="R5" i="1" s="1"/>
-  <c r="O2" i="1"/>
-  <c r="R2" i="1" s="1"/>
-  <c r="Q2" i="1" l="1"/>
-</calcChain>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +78,52 @@
     <t>精度倍数 和后面乘以的M 有关，取整丢失的是小数点后面的数据，随着数量的增加，损失的数据会增加。前项除以的结果会影响丢失的大小。比如0.9和0.1相比。0.9丢失的就会多于0.1。除法最大丢失0.9无线循环接近1，后续M如果无线大，最多会丢失一倍的自己。使用1/3转换无线小数  在乘以3 表示0.9无线小数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>先乘后除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先除后乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/B*M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*M/B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多丢失99，取决于除数的大小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多丢失9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失数量=（A*精度放大数/B-整数部分）*M/精度放大数
+               = 小数部分*M/精度放大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失量算法2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数部分固定，M固定时，精度放大数越大，丢失量越少
+小数部分固定，精度放大固定，M越大，丢失量越多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -287,12 +164,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,7 +191,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -606,50 +486,13 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projectTest\solidityTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270F8C8-FBFB-42B9-A545-36C3BA13D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B00676C-13D5-4D1D-BF76-FDBD683904E7}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$R$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F80A22-BE67-4039-AD76-79367C0596AB}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,9 +501,10 @@
     <col min="15" max="15" width="9.125" customWidth="1"/>
     <col min="17" max="17" width="12.375" customWidth="1"/>
     <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>8</v>
       </c>
@@ -688,8 +532,14 @@
       <c r="R1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I2">
         <v>100</v>
       </c>
@@ -718,8 +568,16 @@
         <f>O2*K2/L2</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <f>(N2-O2)*K2/L2</f>
+        <v>33.33333333333335</v>
+      </c>
+      <c r="T2">
+        <f>(N2-O2)*K2/L2</f>
+        <v>33.33333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I3">
         <v>100</v>
       </c>
@@ -748,8 +606,16 @@
         <f t="shared" ref="R3:R5" si="3">O3*K3/L3</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <f t="shared" ref="S3:S5" si="4">(N3-O3)*K3/L3</f>
+        <v>3.333333333333357</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T5" si="5">(N3-O3)*K3/L3</f>
+        <v>3.333333333333357</v>
+      </c>
+    </row>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I4">
         <v>100</v>
       </c>
@@ -778,8 +644,16 @@
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-    </row>
-    <row r="5" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>0.33333333333331439</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>0.33333333333331439</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I5">
         <v>100</v>
       </c>
@@ -808,26 +682,16 @@
         <f t="shared" si="3"/>
         <v>333.3</v>
       </c>
-    </row>
-    <row r="6" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="N6" t="e">
-        <f t="shared" ref="N6:N10" si="4">I6*L6/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" t="e">
-        <f t="shared" ref="O6:O10" si="5">INT(I6*L6/J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" t="e">
-        <f t="shared" ref="Q6:Q10" si="6">N6*K6/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" t="e">
-        <f t="shared" ref="R6:R10" si="7">O6*K6/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>3.3333333333348494E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>3.3333333333348494E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I7">
         <v>100</v>
       </c>
@@ -841,23 +705,31 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N7:N10" si="6">I7*L7/J7</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O7:O10" si="7">INT(I7*L7/J7)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q7:Q10" si="8">N7*K7/L7</f>
         <v>33.333333333333329</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R7:R10" si="9">O7*K7/L7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <f>(N7-O7)*K7/L7</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="T7">
+        <f>(N7-O7)*K7/L7</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I8">
         <v>100</v>
       </c>
@@ -871,53 +743,69 @@
         <v>10</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S10" si="10">(N8-O8)*K8/L8</f>
+        <v>3.3333333333333348</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T10" si="11">(N8-O8)*K8/L8</f>
+        <v>3.3333333333333348</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>300</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
       <c r="O9">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="R9">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>0.3333333333333357</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="11"/>
+        <v>0.3333333333333357</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I10">
         <v>100</v>
       </c>
@@ -931,41 +819,31 @@
         <v>1000</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>333</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33.333333333333329</v>
       </c>
       <c r="R10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="N11" t="e">
-        <f t="shared" ref="N11:N15" si="8">I11*L11/J11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" ref="O11:O15" si="9">INT(I11*L11/J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" t="e">
-        <f t="shared" ref="Q11:Q15" si="10">N11*K11/L11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" t="e">
-        <f t="shared" ref="R11:R15" si="11">O11*K11/L11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>3.3333333333331439E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="11"/>
+        <v>3.3333333333331439E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I12">
         <v>1000</v>
       </c>
@@ -979,23 +857,27 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N12:N15" si="12">I12*L12/J12</f>
         <v>33.333333333333336</v>
       </c>
       <c r="O12">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O12:O15" si="13">INT(I12*L12/J12)</f>
         <v>33</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q12:Q15" si="14">N12*K12/L12</f>
         <v>3333.3333333333335</v>
       </c>
       <c r="R12">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="R12:R15" si="15">O12*K12/L12</f>
         <v>3300</v>
       </c>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <f>(N12-O12)*K12/L12</f>
+        <v>33.33333333333357</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I13">
         <v>1000</v>
       </c>
@@ -1009,23 +891,27 @@
         <v>10</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>333</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3333.333333333333</v>
       </c>
       <c r="R13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3330</v>
       </c>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <f t="shared" ref="S13:S15" si="16">(N13-O13)*K13/L13</f>
+        <v>3.3333333333331439</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I14">
         <v>1000</v>
       </c>
@@ -1039,23 +925,27 @@
         <v>100</v>
       </c>
       <c r="N14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3333</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3333.3333333333339</v>
       </c>
       <c r="R14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3333</v>
       </c>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <f t="shared" si="16"/>
+        <v>0.33333333333348492</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.2">
       <c r="I15">
         <v>1000</v>
       </c>
@@ -1069,41 +959,27 @@
         <v>1000</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>33333.333333333336</v>
       </c>
       <c r="O15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33333</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="R15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3333.3</v>
       </c>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="N16" t="e">
-        <f t="shared" ref="N16:N20" si="12">I16*L16/J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" t="e">
-        <f t="shared" ref="O16:O20" si="13">INT(I16*L16/J16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" t="e">
-        <f t="shared" ref="Q16:Q20" si="14">N16*K16/L16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" t="e">
-        <f t="shared" ref="R16:R20" si="15">O16*K16/L16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f t="shared" si="16"/>
+        <v>3.3333333333575868E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I17">
         <v>100</v>
       </c>
@@ -1117,23 +993,27 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N17:N20" si="17">I17*L17/J17</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="O17">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="O17:O20" si="18">INT(I17*L17/J17)</f>
         <v>3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="Q17:Q20" si="19">N17*K17/L17</f>
         <v>666.66666666666674</v>
       </c>
       <c r="R17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="R17:R20" si="20">O17*K17/L17</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <f>(N17-O17)*K17/L17</f>
+        <v>66.6666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I18">
         <v>100</v>
       </c>
@@ -1147,23 +1027,35 @@
         <v>10</v>
       </c>
       <c r="N18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>33.333333333333336</v>
       </c>
       <c r="O18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>666.66666666666674</v>
       </c>
       <c r="R18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <f t="shared" ref="S18:S20" si="21">(N18-O18)*K18/L18</f>
+        <v>6.666666666666714</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I19">
         <v>100</v>
       </c>
@@ -1177,23 +1069,33 @@
         <v>100</v>
       </c>
       <c r="N19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>333</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>666.66666666666652</v>
       </c>
       <c r="R19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>666</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>0.66666666666662877</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I20">
         <v>100</v>
       </c>
@@ -1207,23 +1109,41 @@
         <v>1000</v>
       </c>
       <c r="N20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="O20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3333</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>666.66666666666674</v>
       </c>
       <c r="R20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>666.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>6.6666666666696989E-2</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,23 +1166,37 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N25" si="16">I22*L22/J22</f>
+        <f t="shared" ref="N22:N25" si="22">I22*L22/J22</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O25" si="17">INT(I22*L22/J22)</f>
+        <f t="shared" ref="O22:O25" si="23">INT(I22*L22/J22)</f>
         <v>3</v>
       </c>
       <c r="Q22">
-        <f t="shared" ref="Q22:Q25" si="18">N22*K22/L22</f>
+        <f t="shared" ref="Q22:Q25" si="24">N22*K22/L22</f>
         <v>1666.6666666666667</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:R25" si="19">O22*K22/L22</f>
+        <f t="shared" ref="R22:R25" si="25">O22*K22/L22</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <f>(N22-O22)*K22/L22</f>
+        <v>166.66666666666674</v>
+      </c>
+      <c r="T22">
+        <f>(N22-O22)*K22/L22</f>
+        <v>166.66666666666674</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1283,23 +1217,37 @@
         <v>10</v>
       </c>
       <c r="N23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>33.333333333333336</v>
       </c>
       <c r="O23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="R23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1650</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <f t="shared" ref="S23:S25" si="26">(N23-O23)*K23/L23</f>
+        <v>16.666666666666785</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:T25" si="27">(N23-O23)*K23/L23</f>
+        <v>16.666666666666785</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1320,23 +1268,37 @@
         <v>100</v>
       </c>
       <c r="N24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>333</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1666.6666666666665</v>
       </c>
       <c r="R24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1665</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <f t="shared" si="26"/>
+        <v>1.6666666666665719</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="27"/>
+        <v>1.6666666666665719</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1357,23 +1319,37 @@
         <v>1000</v>
       </c>
       <c r="N25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="O25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3333</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="R25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1666.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <f t="shared" si="26"/>
+        <v>0.16666666666674246</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="27"/>
+        <v>0.16666666666674246</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1381,8 +1357,14 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1403,23 +1385,35 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N30" si="20">I27*L27/J27</f>
+        <f t="shared" ref="N27:N30" si="28">I27*L27/J27</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O30" si="21">INT(I27*L27/J27)</f>
+        <f t="shared" ref="O27:O30" si="29">INT(I27*L27/J27)</f>
         <v>3</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27:Q30" si="22">N27*K27/L27</f>
+        <f t="shared" ref="Q27:Q30" si="30">N27*K27/L27</f>
         <v>3333.3333333333335</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:R30" si="23">O27*K27/L27</f>
+        <f t="shared" ref="R27:R30" si="31">O27*K27/L27</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <f>(N27-O27)*K27/L27</f>
+        <v>333.33333333333348</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1440,23 +1434,33 @@
         <v>10</v>
       </c>
       <c r="N28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>33.333333333333336</v>
       </c>
       <c r="O28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>33</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="R28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3300</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <f t="shared" ref="S28:S30" si="32">(N28-O28)*K28/L28</f>
+        <v>33.33333333333357</v>
+      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1477,23 +1481,33 @@
         <v>100</v>
       </c>
       <c r="N29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>333</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3333.333333333333</v>
       </c>
       <c r="R29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3330</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <f t="shared" si="32"/>
+        <v>3.3333333333331439</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1514,23 +1528,33 @@
         <v>1000</v>
       </c>
       <c r="N30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="O30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3333</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="R30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3333</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <f t="shared" si="32"/>
+        <v>0.33333333333348492</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1539,7 +1563,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1560,23 +1584,27 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N35" si="24">I32*L32/J32</f>
+        <f t="shared" ref="N32:N35" si="33">I32*L32/J32</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O35" si="25">INT(I32*L32/J32)</f>
+        <f t="shared" ref="O32:O35" si="34">INT(I32*L32/J32)</f>
         <v>3</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q35" si="26">N32*K32/L32</f>
+        <f t="shared" ref="Q32:Q35" si="35">N32*K32/L32</f>
         <v>33333.333333333336</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32:R35" si="27">O32*K32/L32</f>
+        <f t="shared" ref="R32:R35" si="36">O32*K32/L32</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <f>(N32-O32)*K32/L32</f>
+        <v>3333.3333333333348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1597,23 +1625,27 @@
         <v>10</v>
       </c>
       <c r="N33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>33.333333333333336</v>
       </c>
       <c r="O33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>33</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>33333.333333333336</v>
       </c>
       <c r="R33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>33000</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33">
+        <f t="shared" ref="S33:S35" si="37">(N33-O33)*K33/L33</f>
+        <v>333.3333333333357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I34">
         <v>100</v>
       </c>
@@ -1627,23 +1659,27 @@
         <v>100</v>
       </c>
       <c r="N34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>333.33333333333331</v>
       </c>
       <c r="O34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>333</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>33333.333333333328</v>
       </c>
       <c r="R34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>33300</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34">
+        <f t="shared" si="37"/>
+        <v>33.333333333331439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I35">
         <v>100</v>
       </c>
@@ -1657,28 +1693,32 @@
         <v>1000</v>
       </c>
       <c r="N35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="O35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>3333</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>33333.333333333336</v>
       </c>
       <c r="R35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>33330</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35">
+        <f t="shared" si="37"/>
+        <v>3.3333333333348492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I37">
         <v>9</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>10000</v>
@@ -1688,27 +1728,31 @@
       </c>
       <c r="N37">
         <f>I37*L37/J37</f>
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O40" si="28">INT(I37*L37/J37)</f>
+        <f t="shared" ref="O37:O40" si="38">INT(I37*L37/J37)</f>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:Q40" si="29">N37*K37/L37</f>
-        <v>9000</v>
+        <f t="shared" ref="Q37:Q40" si="39">N37*K37/L37</f>
+        <v>900</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:R40" si="30">O37*K37/L37</f>
+        <f t="shared" ref="R37:R40" si="40">O37*K37/L37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37">
+        <f>(N37-O37)*K37/L37</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I38">
         <v>9</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>10000</v>
@@ -1717,28 +1761,32 @@
         <v>10</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N40" si="31">I38*L38/J38</f>
-        <v>9</v>
+        <f t="shared" ref="N38:N40" si="41">I38*L38/J38</f>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <f t="shared" si="28"/>
-        <v>9</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="29"/>
-        <v>9000</v>
+        <f t="shared" si="39"/>
+        <v>900</v>
       </c>
       <c r="R38">
-        <f t="shared" si="30"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S40" si="42">(N38-O38)*K38/L38</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I39">
         <v>9</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K39">
         <v>10000</v>
@@ -1747,28 +1795,32 @@
         <v>100</v>
       </c>
       <c r="N39">
-        <f t="shared" si="31"/>
-        <v>90</v>
+        <f t="shared" si="41"/>
+        <v>9</v>
       </c>
       <c r="O39">
-        <f t="shared" si="28"/>
-        <v>90</v>
+        <f t="shared" si="38"/>
+        <v>9</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="29"/>
-        <v>9000</v>
+        <f t="shared" si="39"/>
+        <v>900</v>
       </c>
       <c r="R39">
-        <f t="shared" si="30"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>900</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I40">
         <v>9</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>10000</v>
@@ -1777,23 +1829,27 @@
         <v>1000</v>
       </c>
       <c r="N40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="38"/>
+        <v>90</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="39"/>
         <v>900</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="28"/>
+      <c r="R40">
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="29"/>
-        <v>9000</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="30"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K42">
         <v>10000</v>
       </c>
@@ -1807,15 +1863,19 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" ref="Q42" si="32">N42*K42/L42</f>
+        <f t="shared" ref="Q42" si="43">N42*K42/L42</f>
         <v>9000</v>
       </c>
       <c r="R42">
-        <f t="shared" ref="R42" si="33">O42*K42/L42</f>
+        <f t="shared" ref="R42" si="44">O42*K42/L42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42">
+        <f>(N42-O42)*K42/L42</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K43">
         <v>10000</v>
       </c>
@@ -1829,15 +1889,19 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <f t="shared" ref="Q43" si="34">N43*K43/L43</f>
+        <f t="shared" ref="Q43" si="45">N43*K43/L43</f>
         <v>19000</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43" si="35">O43*K43/L43</f>
+        <f t="shared" ref="R43" si="46">O43*K43/L43</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43">
+        <f t="shared" ref="S43:S47" si="47">(N43-O43)*K43/L43</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K44">
         <v>10000</v>
       </c>
@@ -1855,11 +1919,15 @@
         <v>19900</v>
       </c>
       <c r="R44">
-        <f t="shared" ref="R44:R47" si="36">O44*K44/L44</f>
+        <f t="shared" ref="R44:R47" si="48">O44*K44/L44</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <f t="shared" si="47"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K45">
         <v>10000</v>
       </c>
@@ -1873,15 +1941,19 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:Q47" si="37">N45*K45/L45</f>
+        <f t="shared" ref="Q45:Q47" si="49">N45*K45/L45</f>
         <v>19990</v>
       </c>
       <c r="R45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <f t="shared" si="47"/>
+        <v>9990.0000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K46">
         <v>10000</v>
       </c>
@@ -1895,15 +1967,19 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>19999</v>
       </c>
       <c r="R46">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <f t="shared" si="47"/>
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K47">
         <v>10000</v>
       </c>
@@ -1917,17 +1993,215 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>19999.899999999998</v>
       </c>
       <c r="R47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>10000</v>
       </c>
+      <c r="S47">
+        <f t="shared" si="47"/>
+        <v>9999.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="56" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>100</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f>I57*L57/J57</f>
+        <v>0.09</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57:O60" si="50">INT(I57*L57/J57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>I57*K57/J57</f>
+        <v>9</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57:R60" si="51">O57*K57/L57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>99</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:N60" si="52">I58*L58/J58</f>
+        <v>0.99</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q60" si="53">I58*K58/J58</f>
+        <v>99</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>999</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="52"/>
+        <v>9.99</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="50"/>
+        <v>9</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="53"/>
+        <v>999</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="51"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>9999</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="52"/>
+        <v>99.99</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="50"/>
+        <v>99</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="53"/>
+        <v>9999</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="51"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="61" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="S62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="9:23" x14ac:dyDescent="0.2">
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A22:G33"/>
+    <mergeCell ref="S62:W66"/>
+    <mergeCell ref="S48:U50"/>
+    <mergeCell ref="U18:Z26"/>
+    <mergeCell ref="V27:AA30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
